--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1665.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1665.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6993021267923388</v>
+        <v>3.465275764465332</v>
       </c>
       <c r="B1">
-        <v>2.963807998180069</v>
+        <v>2.658677577972412</v>
       </c>
       <c r="C1">
-        <v>2.777625030965666</v>
+        <v>2.006633520126343</v>
       </c>
       <c r="D1">
-        <v>2.560683544989315</v>
+        <v>1.900489687919617</v>
       </c>
       <c r="E1">
-        <v>2.157608645722776</v>
+        <v>2.009080410003662</v>
       </c>
     </row>
   </sheetData>
